--- a/Projects/STYR-N/Treat5_S1_S3_IND_UD2.xlsx
+++ b/Projects/STYR-N/Treat5_S1_S3_IND_UD2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T5_S1_IND" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="T5_S3_UD" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="32">
   <si>
     <t>treatment</t>
   </si>
@@ -116,9 +115,6 @@
     <t>Aert</t>
   </si>
   <si>
-    <t>Vinterrug</t>
-  </si>
-  <si>
     <t>Spring Barley/Ryegrass</t>
   </si>
   <si>
@@ -126,6 +122,9 @@
   </si>
   <si>
     <t>Vinterraps</t>
+  </si>
+  <si>
+    <t>Rug</t>
   </si>
 </sst>
 </file>
@@ -255,7 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -319,6 +318,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,15 +608,15 @@
       <selection activeCell="A70" sqref="A70:G415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="4" width="8.85546875" style="3"/>
+    <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -704,7 +704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -748,7 +748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -787,7 +787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -868,7 +868,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -891,7 +891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -934,7 +934,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>36259</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -1419,10 +1419,10 @@
         <v>38176</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>5</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>5</v>
       </c>
@@ -2058,9 +2058,9 @@
       <selection activeCell="D88" sqref="D88:D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -2503,11 +2503,11 @@
         <v>36259</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -2883,11 +2883,11 @@
         <v>38176</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>5</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>5</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>96.552589285714319</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>5</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>35.110714285714273</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>5</v>
       </c>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -3503,13 +3503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:G280"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -3574,7 +3577,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -3595,7 +3598,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -3616,7 +3619,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3637,7 +3640,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -3723,7 +3726,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -3744,7 +3747,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -3807,7 +3810,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -3828,7 +3831,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -3891,7 +3894,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -3912,7 +3915,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -3933,7 +3936,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -3996,7 +3999,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -4038,7 +4041,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -4082,7 +4085,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -4124,7 +4127,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -4145,7 +4148,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -4166,7 +4169,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -4187,7 +4190,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -4208,7 +4211,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -4250,7 +4253,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -4271,7 +4274,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -4313,7 +4316,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -4334,7 +4337,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -4376,7 +4379,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -4395,7 +4398,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -4414,7 +4417,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -4435,7 +4438,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -4452,11 +4455,11 @@
         <v>38452</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -4467,162 +4470,162 @@
         <v>7</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="16">
+        <v>38601</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>5</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="21">
+        <v>38826</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="16">
-        <v>38452</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>5</v>
-      </c>
-      <c r="B47" s="15">
-        <v>2</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="16">
-        <v>38452</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>5</v>
-      </c>
-      <c r="B48" s="15">
-        <v>2</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="16">
-        <v>38601</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>27</v>
+      <c r="E48" s="21">
+        <v>38834</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
-      <c r="B49" s="10">
-        <v>2</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="21">
-        <v>38826</v>
+      <c r="B49" s="15">
+        <v>2</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="16">
+        <v>38887</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>5</v>
       </c>
-      <c r="B50" s="10">
-        <v>2</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="21">
-        <v>38834</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B50" s="15">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="16">
+        <v>38906</v>
+      </c>
+      <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
-      <c r="B51" s="15">
-        <v>2</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="16">
-        <v>38887</v>
-      </c>
-      <c r="F51" s="10"/>
+      <c r="B51" s="10">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="21">
+        <v>38940</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G51" s="15">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>5</v>
       </c>
-      <c r="B52" s="15">
-        <v>2</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="16">
-        <v>38906</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="19">
+        <v>39226</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53" s="10">
-        <v>2</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="21">
-        <v>38940</v>
+      <c r="E53" s="19">
+        <v>39266</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -4636,14 +4639,14 @@
         <v>8</v>
       </c>
       <c r="E54" s="19">
-        <v>39226</v>
+        <v>39308</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="32"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -4657,14 +4660,14 @@
         <v>8</v>
       </c>
       <c r="E55" s="19">
-        <v>39266</v>
+        <v>39371</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="32"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -4678,14 +4681,14 @@
         <v>8</v>
       </c>
       <c r="E56" s="19">
-        <v>39308</v>
+        <v>39594</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="32"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -4699,35 +4702,35 @@
         <v>8</v>
       </c>
       <c r="E57" s="19">
-        <v>39371</v>
+        <v>39637</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5</v>
       </c>
-      <c r="B58" s="4">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="19">
-        <v>39594</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>9</v>
+      <c r="B58" s="15">
+        <v>2</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="33">
+        <v>39679.4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5</v>
       </c>
@@ -4741,56 +4744,56 @@
         <v>8</v>
       </c>
       <c r="E59" s="19">
-        <v>39637</v>
+        <v>39681</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
-      <c r="B60" s="15">
-        <v>2</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="33">
-        <v>39679.4</v>
-      </c>
-      <c r="F60" s="15" t="s">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="19">
+        <v>39735</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>5</v>
+      </c>
+      <c r="B61" s="15">
+        <v>2</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="33">
+        <v>39740.400000000001</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="19">
-        <v>39681</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -4804,77 +4807,75 @@
         <v>8</v>
       </c>
       <c r="E62" s="19">
-        <v>39735</v>
+        <v>39959</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
       <c r="B63" s="15">
         <v>2</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="33">
-        <v>39740.400000000001</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E63" s="16">
+        <v>39968</v>
+      </c>
+      <c r="F63" s="10"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>5</v>
       </c>
-      <c r="B64" s="4">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="19">
-        <v>39959</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B64" s="15">
+        <v>2</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="16">
+        <v>39989</v>
+      </c>
+      <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
-      <c r="B65" s="15">
-        <v>2</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="16">
-        <v>39968</v>
-      </c>
-      <c r="F65" s="10"/>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G65" s="15">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -4888,14 +4889,14 @@
         <v>20</v>
       </c>
       <c r="E66" s="16">
-        <v>39989</v>
+        <v>40003</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="15">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -4909,35 +4910,37 @@
         <v>8</v>
       </c>
       <c r="E67" s="19">
-        <v>40000</v>
+        <v>40045</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>5</v>
       </c>
-      <c r="B68" s="15">
-        <v>2</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="16">
-        <v>40003</v>
-      </c>
-      <c r="F68" s="10"/>
+      <c r="B68" s="4">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="19">
+        <v>40106</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G68" s="15">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>5</v>
       </c>
@@ -4951,35 +4954,33 @@
         <v>8</v>
       </c>
       <c r="E69" s="19">
-        <v>40045</v>
+        <v>40337</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>5</v>
       </c>
-      <c r="B70" s="4">
-        <v>2</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="19">
-        <v>40106</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B70" s="15">
+        <v>2</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="16">
+        <v>40364</v>
+      </c>
+      <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5</v>
       </c>
@@ -4993,14 +4994,14 @@
         <v>8</v>
       </c>
       <c r="E71" s="19">
-        <v>40337</v>
+        <v>40373</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>5</v>
       </c>
@@ -5014,14 +5015,14 @@
         <v>20</v>
       </c>
       <c r="E72" s="16">
-        <v>40364</v>
+        <v>40388</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>5</v>
       </c>
@@ -5035,95 +5036,61 @@
         <v>8</v>
       </c>
       <c r="E73" s="19">
-        <v>40373</v>
+        <v>40416</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>5</v>
       </c>
-      <c r="B74" s="15">
-        <v>2</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="16">
-        <v>40388</v>
-      </c>
-      <c r="F74" s="10"/>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="19">
+        <v>40463</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G74" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5</v>
       </c>
-      <c r="B75" s="4">
-        <v>2</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="19">
-        <v>40416</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>9</v>
+      <c r="B75" s="8">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="11">
+        <v>34445</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>5</v>
-      </c>
-      <c r="B76" s="4">
-        <v>2</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="19">
-        <v>40463</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>9</v>
-      </c>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8">
-        <v>2</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="11">
-        <v>34445</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G77" s="8">
         <v>100</v>
       </c>
@@ -5141,9 +5108,9 @@
       <selection activeCell="A67" sqref="A67:G204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5166,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -5185,7 +5152,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -5206,7 +5173,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -5227,7 +5194,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -5248,7 +5215,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5271,7 +5238,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5292,7 +5259,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -5315,7 +5282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -5334,7 +5301,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -5355,7 +5322,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -5376,7 +5343,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -5399,7 +5366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -5418,7 +5385,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -5439,7 +5406,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -5460,7 +5427,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -5483,7 +5450,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -5502,7 +5469,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -5523,7 +5490,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -5544,7 +5511,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -5567,7 +5534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5586,7 +5553,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -5607,7 +5574,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -5628,7 +5595,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -5649,7 +5616,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -5672,7 +5639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -5693,7 +5660,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -5716,7 +5683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -5735,7 +5702,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -5756,7 +5723,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -5777,7 +5744,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -5798,7 +5765,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -5819,7 +5786,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -5842,7 +5809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -5861,7 +5828,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -5882,7 +5849,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -5905,7 +5872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -5924,7 +5891,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -5945,7 +5912,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -5966,7 +5933,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -5987,7 +5954,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -6008,7 +5975,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -6029,7 +5996,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -6050,7 +6017,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -6069,7 +6036,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -6090,7 +6057,7 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -6111,7 +6078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -6132,7 +6099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -6153,7 +6120,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -6174,7 +6141,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>5</v>
       </c>
@@ -6195,7 +6162,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
@@ -6216,7 +6183,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -6237,7 +6204,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -6258,7 +6225,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -6279,7 +6246,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -6300,7 +6267,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -6321,7 +6288,7 @@
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -6340,7 +6307,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -6361,7 +6328,7 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5</v>
       </c>
@@ -6382,7 +6349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
@@ -6403,7 +6370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>5</v>
       </c>
@@ -6426,7 +6393,7 @@
         <v>158.99089285714285</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>5</v>
       </c>
@@ -6449,7 +6416,7 @@
         <v>55.471875000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -6470,7 +6437,7 @@
       </c>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>5</v>
       </c>
@@ -6491,7 +6458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -6512,7 +6479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -6546,9 +6513,9 @@
       <selection activeCell="A69" sqref="A69:G139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6571,7 +6538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -6594,7 +6561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -6613,7 +6580,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -6634,7 +6601,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -6655,7 +6622,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6678,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -6697,7 +6664,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6718,7 +6685,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -6739,7 +6706,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -6760,7 +6727,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -6783,7 +6750,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -6804,7 +6771,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -6827,7 +6794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -6846,7 +6813,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -6867,7 +6834,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -6888,7 +6855,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -6911,7 +6878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -6930,7 +6897,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -6951,7 +6918,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -6972,7 +6939,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -6995,7 +6962,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -7014,7 +6981,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -7035,7 +7002,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -7056,7 +7023,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -7079,7 +7046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -7098,7 +7065,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -7119,7 +7086,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -7140,7 +7107,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -7161,7 +7128,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -7182,7 +7149,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -7203,7 +7170,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -7226,7 +7193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -7247,7 +7214,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5</v>
       </c>
@@ -7268,7 +7235,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -7289,7 +7256,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -7312,7 +7279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5</v>
       </c>
@@ -7331,7 +7298,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -7352,7 +7319,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -7373,7 +7340,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5</v>
       </c>
@@ -7394,7 +7361,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -7413,7 +7380,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -7434,7 +7401,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>5</v>
       </c>
@@ -7455,7 +7422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -7476,7 +7443,7 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -7497,7 +7464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -7518,7 +7485,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -7539,7 +7506,7 @@
       </c>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -7558,7 +7525,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -7579,7 +7546,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>5</v>
       </c>
@@ -7600,7 +7567,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
@@ -7621,7 +7588,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -7642,7 +7609,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -7663,7 +7630,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5</v>
       </c>
@@ -7684,7 +7651,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -7705,7 +7672,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -7726,7 +7693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -7747,7 +7714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -7768,7 +7735,7 @@
       </c>
       <c r="G58" s="32"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5</v>
       </c>
@@ -7789,7 +7756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
@@ -7810,7 +7777,7 @@
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -7831,7 +7798,7 @@
       </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -7852,7 +7819,7 @@
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -7873,7 +7840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>5</v>
       </c>
@@ -7894,7 +7861,7 @@
       </c>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -7915,7 +7882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -7936,7 +7903,7 @@
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -7957,7 +7924,7 @@
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>5</v>
       </c>
@@ -7989,13 +7956,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8018,8 +7990,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>5</v>
       </c>
       <c r="B2" s="8">
@@ -8041,8 +8013,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>5</v>
       </c>
       <c r="B3" s="8">
@@ -8058,10 +8030,9 @@
         <v>34444</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>5</v>
       </c>
       <c r="B4" s="8">
@@ -8079,10 +8050,9 @@
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>5</v>
       </c>
       <c r="B5" s="8">
@@ -8102,8 +8072,8 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="8">
@@ -8125,8 +8095,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
       <c r="B7" s="8">
@@ -8142,10 +8112,9 @@
         <v>34815</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="8">
@@ -8163,10 +8132,9 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>5</v>
       </c>
       <c r="B9" s="8">
@@ -8184,10 +8152,9 @@
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
       <c r="B10" s="8">
@@ -8205,10 +8172,9 @@
       <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
       <c r="B11" s="8">
@@ -8230,8 +8196,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>5</v>
       </c>
       <c r="B12" s="8">
@@ -8251,11 +8217,11 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -8264,21 +8230,21 @@
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="43">
         <v>35899</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -8287,17 +8253,16 @@
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="43">
         <v>35899</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>5</v>
-      </c>
-      <c r="B15" s="12">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="18">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -8306,19 +8271,18 @@
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="43">
         <v>35905</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -8327,19 +8291,18 @@
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="43">
         <v>36004</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>5</v>
+      </c>
+      <c r="B17" s="18">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -8348,21 +8311,21 @@
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="43">
         <v>36248</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="18">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="12">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -8371,17 +8334,16 @@
       <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="43">
         <v>36248</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -8390,19 +8352,18 @@
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="43">
         <v>36259</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="12">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18">
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -8411,19 +8372,18 @@
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="43">
         <v>36404</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="12">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -8442,11 +8402,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>5</v>
+      </c>
+      <c r="B22" s="18">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8459,13 +8419,12 @@
         <v>36620</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>5</v>
-      </c>
-      <c r="B23" s="12">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18">
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -8480,13 +8439,12 @@
       <c r="F23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>5</v>
+      </c>
+      <c r="B24" s="18">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -8501,13 +8459,12 @@
       <c r="F24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18">
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -8516,21 +8473,21 @@
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="43">
         <v>36987</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>5</v>
+      </c>
+      <c r="B26" s="18">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -8539,17 +8496,16 @@
       <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="43">
         <v>36987</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="12">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>5</v>
+      </c>
+      <c r="B27" s="18">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -8558,19 +8514,18 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="43">
         <v>36991</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>5</v>
-      </c>
-      <c r="B28" s="12">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18">
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -8579,16 +8534,15 @@
       <c r="D28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="43">
         <v>37125</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>5</v>
       </c>
       <c r="B29" s="15">
@@ -8606,10 +8560,9 @@
       <c r="F29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
       <c r="B30" s="15">
@@ -8629,8 +8582,8 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>5</v>
       </c>
       <c r="B31" s="15">
@@ -8648,10 +8601,9 @@
       <c r="F31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>5</v>
       </c>
       <c r="B32" s="15">
@@ -8673,8 +8625,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
         <v>5</v>
       </c>
       <c r="B33" s="15">
@@ -8692,10 +8644,9 @@
       <c r="F33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
         <v>5</v>
       </c>
       <c r="B34" s="15">
@@ -8713,10 +8664,9 @@
       <c r="F34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>5</v>
       </c>
       <c r="B35" s="15">
@@ -8734,13 +8684,12 @@
       <c r="F35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>5</v>
-      </c>
-      <c r="B36" s="12">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>5</v>
+      </c>
+      <c r="B36" s="18">
         <v>3</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -8749,7 +8698,7 @@
       <c r="D36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="43">
         <v>38443</v>
       </c>
       <c r="F36" s="18" t="s">
@@ -8759,11 +8708,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>5</v>
+      </c>
+      <c r="B37" s="18">
         <v>3</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -8772,17 +8721,16 @@
       <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="43">
         <v>38443</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>5</v>
-      </c>
-      <c r="B38" s="12">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>5</v>
+      </c>
+      <c r="B38" s="18">
         <v>3</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -8791,19 +8739,18 @@
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="43">
         <v>38443</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>5</v>
-      </c>
-      <c r="B39" s="12">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>5</v>
+      </c>
+      <c r="B39" s="18">
         <v>3</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -8812,19 +8759,18 @@
       <c r="D39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="43">
         <v>38443</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>5</v>
-      </c>
-      <c r="B40" s="12">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>5</v>
+      </c>
+      <c r="B40" s="18">
         <v>3</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -8839,10 +8785,9 @@
       <c r="F40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>5</v>
       </c>
       <c r="B41" s="10">
@@ -8860,8 +8805,8 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <v>5</v>
       </c>
       <c r="B42" s="10">
@@ -8881,8 +8826,8 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <v>5</v>
       </c>
       <c r="B43" s="15">
@@ -8902,8 +8847,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <v>5</v>
       </c>
       <c r="B44" s="15">
@@ -8923,8 +8868,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>5</v>
       </c>
       <c r="B45" s="10">
@@ -8944,8 +8889,8 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>5</v>
       </c>
       <c r="B46" s="10">
@@ -8961,12 +8906,12 @@
         <v>38973</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>5</v>
       </c>
       <c r="B47" s="10">
@@ -8984,8 +8929,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <v>5</v>
       </c>
       <c r="B48" s="10">
@@ -9005,8 +8950,8 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
         <v>5</v>
       </c>
       <c r="B49" s="10">
@@ -9026,20 +8971,20 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>5</v>
-      </c>
-      <c r="B50" s="4">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>5</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="16">
         <v>39595</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -9047,20 +8992,20 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>5</v>
-      </c>
-      <c r="B51" s="4">
-        <v>3</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>5</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="16">
         <v>39595</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -9068,20 +9013,20 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>5</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>5</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="16">
         <v>39637</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -9089,20 +9034,20 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="4">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>5</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <v>39637</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -9110,20 +9055,20 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>5</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>5</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="16">
         <v>39679</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -9131,20 +9076,20 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>5</v>
+      </c>
+      <c r="B55" s="15">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="16">
         <v>39679</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -9152,20 +9097,20 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>5</v>
-      </c>
-      <c r="B56" s="4">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>5</v>
+      </c>
+      <c r="B56" s="15">
+        <v>3</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="16">
         <v>39735</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -9173,20 +9118,20 @@
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>5</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3</v>
-      </c>
-      <c r="C57" s="4" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>5</v>
+      </c>
+      <c r="B57" s="15">
+        <v>3</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="16">
         <v>39735</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -9194,20 +9139,20 @@
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3</v>
-      </c>
-      <c r="C58" s="4" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>5</v>
+      </c>
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="16">
         <v>39952</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -9215,20 +9160,20 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>5</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3</v>
-      </c>
-      <c r="C59" s="4" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>5</v>
+      </c>
+      <c r="B59" s="15">
+        <v>3</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="16">
         <v>39952</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -9236,8 +9181,8 @@
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
         <v>5</v>
       </c>
       <c r="B60" s="15">
@@ -9257,8 +9202,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
         <v>5</v>
       </c>
       <c r="B61" s="15">
@@ -9278,20 +9223,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>5</v>
-      </c>
-      <c r="B62" s="4">
-        <v>3</v>
-      </c>
-      <c r="C62" s="4" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>5</v>
+      </c>
+      <c r="B62" s="15">
+        <v>3</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="16">
         <v>40000</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -9299,20 +9244,20 @@
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>5</v>
+      </c>
+      <c r="B63" s="15">
+        <v>3</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="16">
         <v>40000</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -9320,8 +9265,8 @@
       </c>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
         <v>5</v>
       </c>
       <c r="B64" s="15">
@@ -9341,20 +9286,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>5</v>
+      </c>
+      <c r="B65" s="15">
+        <v>3</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="16">
         <v>40039</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -9362,20 +9307,20 @@
       </c>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>5</v>
-      </c>
-      <c r="B66" s="4">
-        <v>3</v>
-      </c>
-      <c r="C66" s="4" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>5</v>
+      </c>
+      <c r="B66" s="15">
+        <v>3</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="16">
         <v>40039</v>
       </c>
       <c r="F66" s="10" t="s">
@@ -9383,20 +9328,20 @@
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>5</v>
-      </c>
-      <c r="B67" s="4">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>5</v>
+      </c>
+      <c r="B67" s="15">
+        <v>3</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="16">
         <v>40107</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -9404,20 +9349,20 @@
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>5</v>
+      </c>
+      <c r="B68" s="15">
+        <v>3</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="16">
         <v>40107</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -9425,8 +9370,8 @@
       </c>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
         <v>5</v>
       </c>
       <c r="B69" s="10">
@@ -9444,8 +9389,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
         <v>5</v>
       </c>
       <c r="B70" s="10">
@@ -9461,12 +9406,12 @@
         <v>40290</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
         <v>5</v>
       </c>
       <c r="B71" s="15">
@@ -9486,8 +9431,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
         <v>5</v>
       </c>
       <c r="B72" s="15">
